--- a/Locations.xlsx
+++ b/Locations.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
   <si>
     <t>Armory and Gymnasium (Red Gym)</t>
   </si>
@@ -127,7 +131,7 @@
     <t>1180 Observatory Dr.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t> </t>
   </si>
   <si>
     <t>Ingraham Hall</t>
@@ -196,24 +200,24 @@
     <t>420 N. Park St.</t>
   </si>
   <si>
+    <t>Susan B. Davis Residence Hall</t>
+  </si>
+  <si>
+    <t>923 W. Johnson St.</t>
+  </si>
+  <si>
+    <t>Zoe Bayliss Co-Op</t>
+  </si>
+  <si>
+    <t>915 W. Johnson St.</t>
+  </si>
+  <si>
     <t>Barnard Residence Hall</t>
   </si>
   <si>
     <t>970 University Ave.</t>
   </si>
   <si>
-    <t>Susan B. Davis Residence Hall</t>
-  </si>
-  <si>
-    <t>923 W. Johnson St.</t>
-  </si>
-  <si>
-    <t>Zoe Bayliss Co-Op</t>
-  </si>
-  <si>
-    <t>915 W. Johnson St.</t>
-  </si>
-  <si>
     <t>Elizabeth Waters Hall</t>
   </si>
   <si>
@@ -310,7 +314,7 @@
     <t>640 Babcock Dr.</t>
   </si>
   <si>
-    <t xml:space="preserve">Union South </t>
+    <t>Union South </t>
   </si>
   <si>
     <t>1308 W Dayton St.</t>
@@ -352,7 +356,7 @@
     <t>601 University Ave.</t>
   </si>
   <si>
-    <t xml:space="preserve">Babcock Hall </t>
+    <t>Babcock Hall </t>
   </si>
   <si>
     <t>1605 Linden Dr.</t>
@@ -418,20 +422,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="11.0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -439,1021 +468,1103 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF222222"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="65.57"/>
-    <col customWidth="1" min="2" max="2" width="58.14"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="30.14"/>
-    <col customWidth="1" min="5" max="5" width="38.0"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>43.076247</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>-89.3983698999999</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="n">
         <v>43.0755641</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="n">
         <v>-89.3974633</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="n">
         <v>43.0739917999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="n">
         <v>-89.3994171</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="n">
         <v>43.0753999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="n">
         <v>-89.399985</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1" t="n">
         <v>43.0767057</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="n">
         <v>-89.4010609</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="n">
         <v>43.0772105</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="n">
         <v>-89.4027987</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="n">
         <v>43.0786717</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="n">
         <v>-89.4188100999999</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="n">
         <v>43.0758561</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="n">
         <v>-89.400864</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="n">
         <v>43.0745229</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="n">
         <v>-89.4022643999999</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="n">
         <v>43.0739568</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="n">
         <v>-89.4043040999999</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="n">
         <v>43.0726811</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1" t="n">
         <v>-89.4016920999999</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="n">
         <v>43.0726553</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="n">
         <v>-89.3999759</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="n">
         <v>43.0713014</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="n">
         <v>-89.4035594</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="n">
         <v>43.0710301</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="n">
         <v>-89.4064136</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1" t="n">
         <v>43.07079</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1" t="n">
         <v>-89.406857</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="n">
         <v>43.0713937</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1" t="n">
         <v>-89.4086755999999</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1" t="n">
         <v>43.0773188999999</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="1" t="n">
         <v>-89.4301347</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1" t="n">
         <v>43.0755408</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="1" t="n">
         <v>-89.4067112</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="1" t="n">
         <v>43.0764116</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="1" t="n">
         <v>-89.4052576999999</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="1" t="n">
         <v>43.0756178</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="1" t="n">
         <v>-89.4051916999999</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="1" t="n">
         <v>43.0757284</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="1" t="n">
         <v>-89.40921</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="1" t="n">
         <v>43.0743445</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1" t="n">
         <v>-89.408228</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="1" t="n">
         <v>43.0747153</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="1" t="n">
         <v>-89.4095706</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1" t="n">
         <v>43.0744122</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="1" t="n">
         <v>-89.4053983</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="1" t="n">
         <v>43.0746952999999</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="1" t="n">
         <v>-89.4044476999999</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="1" t="n">
         <v>43.0746952999999</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="1" t="n">
         <v>-89.4044476999999</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1" t="n">
         <v>43.0717475999999</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="n">
         <v>-89.3970023</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="n">
         <v>43.06904</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="n">
         <v>-89.400369</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="n">
         <v>43.0715567</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="n">
         <v>-89.4003433</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="n">
         <v>43.0737394</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="n">
         <v>-89.4012205</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1">
-        <v>43.0735722</v>
-      </c>
-      <c r="D31" s="1">
-        <v>-89.4021990999999</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="C31" s="1" t="n">
+        <v>43.0721023</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>-89.4017289999999</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="1">
-        <v>43.0721023</v>
-      </c>
-      <c r="D32" s="1">
-        <v>-89.4017289999999</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="C32" s="1" t="n">
+        <v>43.071806</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>-89.401344</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="1">
-        <v>43.071806</v>
-      </c>
-      <c r="D33" s="1">
-        <v>-89.401344</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33" s="1" t="n">
+        <v>43.0735722</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>-89.4021990999999</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="2">
-        <v>43.0735722</v>
-      </c>
-      <c r="D34" s="1">
-        <v>-89.4021990999999</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>43.0767811</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>-89.4068383</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="1">
-        <v>43.0767811</v>
-      </c>
-      <c r="D35" s="1">
-        <v>-89.4068383</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>43.0779852999999</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>-89.4109191999999</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="1">
-        <v>43.0779852999999</v>
-      </c>
-      <c r="D36" s="1">
-        <v>-89.4109191999999</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>43.0772404</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>-89.4114137</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="1">
-        <v>43.0772404</v>
-      </c>
-      <c r="D37" s="1">
-        <v>-89.4114137</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>43.077877</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>-89.4128566</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="1">
-        <v>43.077877</v>
-      </c>
-      <c r="D38" s="1">
-        <v>-89.4128566</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>76</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>43.0778756</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>-89.4127788999999</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="1">
-        <v>43.0778756</v>
-      </c>
-      <c r="D39" s="1">
-        <v>-89.4127788999999</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>43.0778774</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>-89.4129338</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="1">
-        <v>43.0778774</v>
-      </c>
-      <c r="D40" s="1">
-        <v>-89.4129338</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>43.0781115</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>-89.4142143</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="1">
-        <v>43.0781115</v>
-      </c>
-      <c r="D41" s="1">
-        <v>-89.4142143</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>82</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>43.0780032</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>-89.4156299</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="1">
-        <v>43.0780032</v>
-      </c>
-      <c r="D42" s="1">
-        <v>-89.4156299</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>84</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>43.0776277999999</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>-89.414118</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="1">
-        <v>43.0776277999999</v>
-      </c>
-      <c r="D43" s="1">
-        <v>-89.414118</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>86</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>43.0776016</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>-89.4127012</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="1">
-        <v>43.0776016</v>
-      </c>
-      <c r="D44" s="1">
-        <v>-89.4127012</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>88</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>43.0772207</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>-89.4122891</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="1">
-        <v>43.0772207</v>
-      </c>
-      <c r="D45" s="1">
-        <v>-89.4122891</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>43.0778478</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>-89.4177005</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="1">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="n">
         <v>43.0778478</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="1" t="n">
         <v>-89.4177005</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="1">
-        <v>43.0778478</v>
-      </c>
-      <c r="D47" s="1">
-        <v>-89.4177005</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>43.0779766</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>-89.4164491</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="1">
-        <v>43.0779766</v>
-      </c>
-      <c r="D48" s="1">
-        <v>-89.4164491</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>96</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>43.0773623</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>-89.4150250999999</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="1">
-        <v>43.0773623</v>
-      </c>
-      <c r="D49" s="1">
-        <v>-89.4150250999999</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>43.07755</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>-89.4127017999999</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="1">
-        <v>43.07755</v>
-      </c>
-      <c r="D50" s="2">
-        <v>-89.4127017999999</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>43.0719139</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>-89.4081352</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="1">
-        <v>43.0719139</v>
-      </c>
-      <c r="D51" s="1">
-        <v>-89.4081352</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>101</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>43.0729501</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>-89.4077254999999</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="1">
-        <v>43.0729501</v>
-      </c>
-      <c r="D52" s="1">
-        <v>-89.4077254999999</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>104</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>43.0717417</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>-89.4102987</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="1">
-        <v>43.0717417</v>
-      </c>
-      <c r="D53" s="1">
-        <v>-89.4102987</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>106</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>43.0758472</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>-89.4121321</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="1">
-        <v>43.0758472</v>
-      </c>
-      <c r="D54" s="1">
-        <v>-89.4121321</v>
-      </c>
-    </row>
-    <row r="55" ht="18.0" customHeight="1">
+        <v>108</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>43.07382</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>-89.4108537</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="1">
-        <v>43.07382</v>
-      </c>
-      <c r="D55" s="1">
-        <v>-89.4108537</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>43.0764792</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>-89.3998682</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="1">
-        <v>43.0764792</v>
-      </c>
-      <c r="D56" s="1">
-        <v>-89.3998682</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>112</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>43.0725279</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>-89.3970699</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="1">
-        <v>43.0725279</v>
-      </c>
-      <c r="D57" s="1">
-        <v>-89.3970699</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>43.0748395</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>-89.4137635</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="1">
-        <v>43.0748395</v>
-      </c>
-      <c r="D58" s="1">
-        <v>-89.4137635</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>116</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>43.072456</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>-89.403635</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="1">
-        <v>43.072456</v>
-      </c>
-      <c r="D59" s="1">
-        <v>-89.403635</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>118</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>43.0730351</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>-89.3985695</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="1">
-        <v>43.0730351</v>
-      </c>
-      <c r="D60" s="1">
-        <v>-89.3985695</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>43.0726789</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>-89.3932684</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="1">
-        <v>43.0726789</v>
-      </c>
-      <c r="D61" s="1">
-        <v>-89.3932684</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>122</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>43.074689</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>-89.397007</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="1">
-        <v>43.074689</v>
-      </c>
-      <c r="D62" s="1">
-        <v>-89.397007</v>
-      </c>
-    </row>
-    <row r="63" ht="13.5" customHeight="1">
+        <v>124</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>43.0749004</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>-89.3964972999999</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>43.075159</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>-89.3961779999999</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>43.075134</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>-89.394564</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>43.075046</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>-89.3920279999999</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="1">
-        <v>43.0749004</v>
-      </c>
-      <c r="D63" s="1">
-        <v>-89.3964972999999</v>
-      </c>
-    </row>
-    <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="1">
-        <v>43.075159</v>
-      </c>
-      <c r="D64" s="1">
-        <v>-89.3961779999999</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="1">
-        <v>43.075134</v>
-      </c>
-      <c r="D65" s="1">
-        <v>-89.394564</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="1">
-        <v>43.075046</v>
-      </c>
-      <c r="D66" s="1">
-        <v>-89.3920279999999</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>131</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>43.0749204</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>-89.3883945</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="1">
-        <v>43.0749204</v>
-      </c>
-      <c r="D67" s="1">
-        <v>-89.3883945</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C67" s="1" t="n">
         <v>43.0749396</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D67" s="1" t="n">
         <v>-89.3872597</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>